--- a/data/scheduling_DNN/predict/0.9/result28.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result28.xlsx
@@ -570,10 +570,10 @@
         <v>0.8995819091796875</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5664923191070557</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1046124771237373</v>
+        <v>0.1109486743807793</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9699740409851074</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8637529015541077</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1004021614789963</v>
+        <v>0.01128293015062809</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9601809978485107</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4001453518867493</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3713880181312561</v>
+        <v>0.3136399388313293</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8822228908538818</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5269483923912048</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05177104100584984</v>
+        <v>0.1262199729681015</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8778610229492188</v>
       </c>
       <c r="V6" t="n">
-        <v>0.838257908821106</v>
+        <v>0.3990413844585419</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001568406703881919</v>
+        <v>0.2292682528495789</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8636248111724854</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8749425411224365</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003709082491695881</v>
+        <v>0.0001280910073546693</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9154410362243652</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5307181477546692</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04293099790811539</v>
+        <v>0.1480116993188858</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8817811012268066</v>
       </c>
       <c r="V9" t="n">
-        <v>0.524641752243042</v>
+        <v>0.4004258513450623</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1275485157966614</v>
+        <v>0.2317028790712357</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8662869930267334</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5159504413604736</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2012894451618195</v>
+        <v>0.1227357015013695</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8588380813598633</v>
       </c>
       <c r="V11" t="n">
-        <v>0.590633749961853</v>
+        <v>0.516313910484314</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0719335600733757</v>
+        <v>0.1173228099942207</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9117059707641602</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.3990562260150909</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1030742079019547</v>
+        <v>0.2628097832202911</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8760831356048584</v>
       </c>
       <c r="V13" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8711100816726685</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0898415744304657</v>
+        <v>2.473126551194582e-05</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8658130168914795</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.400425910949707</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04490077495574951</v>
+        <v>0.2165851593017578</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8962280750274658</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5273672938346863</v>
       </c>
       <c r="W15" t="n">
-        <v>0.268193244934082</v>
+        <v>0.1360582709312439</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9385001659393311</v>
       </c>
       <c r="V16" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5265741348266602</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3203928768634796</v>
+        <v>0.1696830540895462</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8796119689941406</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.3999535739421844</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1731570363044739</v>
+        <v>0.2300721704959869</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8684499263763428</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5159080028533936</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1637276113033295</v>
+        <v>0.1242858096957207</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8559160232543945</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8811606764793396</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04103876650333405</v>
+        <v>0.0006372925126925111</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9350600242614746</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.3998206555843353</v>
       </c>
       <c r="W20" t="n">
-        <v>0.341428816318512</v>
+        <v>0.2864811420440674</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8802990913391113</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4000607430934906</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2140538543462753</v>
+        <v>0.2306288778781891</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5403990745544434</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3990470468997955</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02319476380944252</v>
+        <v>0.01998039521276951</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5328631401062012</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.3990606963634491</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07159001380205154</v>
+        <v>0.01790309324860573</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5440211296081543</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.3999280333518982</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03735318779945374</v>
+        <v>0.02076281979680061</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5450491905212402</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.3990422487258911</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03019850328564644</v>
+        <v>0.02131802774965763</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5298938751220703</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5248497724533081</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01522237528115511</v>
+        <v>2.544297240092419e-05</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5152440071105957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8899709582328796</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00267832214012742</v>
+        <v>0.1404202878475189</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5211730003356934</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8701349496841431</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07802226394414902</v>
+        <v>0.1217744424939156</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253818035125732</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.874768078327179</v>
       </c>
       <c r="W29" t="n">
-        <v>0.00119757791981101</v>
+        <v>0.1220707669854164</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5464959144592285</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5389545559883118</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02612182125449181</v>
+        <v>5.68720861338079e-05</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5121359825134277</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8860242962837219</v>
       </c>
       <c r="W31" t="n">
-        <v>0.008929260075092316</v>
+        <v>0.1397924721240997</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5536389350891113</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.4004873335361481</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01849711313843727</v>
+        <v>0.02345541305840015</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4021879136562347</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02871378138661385</v>
+        <v>0.01314280088990927</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5245449542999268</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4003314673900604</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0166656319051981</v>
+        <v>0.01542899012565613</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5720069408416748</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5226840972900391</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004477119538933039</v>
+        <v>0.002432742854580283</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5143082141876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5094147324562073</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0006059696315787733</v>
+        <v>2.394616421952378e-05</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143427848815918</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5269783139228821</v>
       </c>
       <c r="W37" t="n">
-        <v>0.009380945935845375</v>
+        <v>0.000159656599862501</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5154509544372559</v>
       </c>
       <c r="V38" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5161594748497009</v>
       </c>
       <c r="W38" t="n">
-        <v>0.2117767035961151</v>
+        <v>5.020011712986161e-07</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.510200023651123</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8826433420181274</v>
       </c>
       <c r="W39" t="n">
-        <v>1.905085809994489e-05</v>
+        <v>0.1387140303850174</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5115349292755127</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5228132009506226</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03054673969745636</v>
+        <v>0.0001271994115086272</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5275828838348389</v>
       </c>
       <c r="V41" t="n">
-        <v>0.975210964679718</v>
+        <v>0.3990266025066376</v>
       </c>
       <c r="W41" t="n">
-        <v>0.2003708928823471</v>
+        <v>0.0165267176926136</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109911918640137</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.4010284841060638</v>
       </c>
       <c r="W42" t="n">
-        <v>0.006355072371661663</v>
+        <v>9.925554331857711e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.408499002456665</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.86564040184021</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01347500644624233</v>
+        <v>0.2089782655239105</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895950317382812</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8743995428085327</v>
       </c>
       <c r="W44" t="n">
-        <v>1.18485221634046e-09</v>
+        <v>0.2350354194641113</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3827497959136963</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8818392157554626</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001022875308990479</v>
+        <v>0.2490902543067932</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3856499195098877</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.8697128295898438</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09436745196580887</v>
+        <v>0.2343169003725052</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4084460735321045</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.4004643261432648</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1812544465065002</v>
+        <v>6.370829214574769e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.3999581933021545</v>
       </c>
       <c r="W48" t="n">
-        <v>0.009839524514973164</v>
+        <v>7.677581015741453e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3877451419830322</v>
       </c>
       <c r="V49" t="n">
-        <v>0.417663037776947</v>
+        <v>0.4024995565414429</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0008950805058702826</v>
+        <v>0.0002176927519030869</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3827140331268311</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.888171911239624</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0001165010835393332</v>
+        <v>0.2554876804351807</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3853330612182617</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5267440676689148</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01434963382780552</v>
+        <v>0.01999707333743572</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3924651145935059</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8707390427589417</v>
       </c>
       <c r="W52" t="n">
-        <v>0.004714865703135729</v>
+        <v>0.2287459522485733</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4346969127655029</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5278342962265015</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001886327983811498</v>
+        <v>0.008674572221934795</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878750801086426</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5235066413879395</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01866666600108147</v>
+        <v>0.018395921215415</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3844199180603027</v>
       </c>
       <c r="V55" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8713065385818481</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001134213409386575</v>
+        <v>0.2370585799217224</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3857171535491943</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.3990505039691925</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01082016620784998</v>
+        <v>0.0001777782308636233</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863620758056641</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4021448493003845</v>
       </c>
       <c r="W57" t="n">
-        <v>5.934590262768324e-06</v>
+        <v>0.0002490959304850549</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.38543701171875</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5180355310440063</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01431876327842474</v>
+        <v>0.01758236810564995</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4391679763793945</v>
       </c>
       <c r="V59" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.88765549659729</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1305173933506012</v>
+        <v>0.2011410593986511</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3881559371948242</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8870907425880432</v>
       </c>
       <c r="W60" t="n">
-        <v>0.001398925553075969</v>
+        <v>0.2489359378814697</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3868780136108398</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3990558683872223</v>
       </c>
       <c r="W61" t="n">
-        <v>0.03577437624335289</v>
+        <v>0.0001483001396991313</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8713829517364502</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.4004106223583221</v>
       </c>
       <c r="W62" t="n">
-        <v>0.01095676701515913</v>
+        <v>0.2218149304389954</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8790791034698486</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4009941518306732</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1743491888046265</v>
+        <v>0.2285652160644531</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9106390476226807</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.3993522822856903</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2017744034528732</v>
+        <v>0.2614141404628754</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8579719066619873</v>
       </c>
       <c r="V65" t="n">
-        <v>0.975181519985199</v>
+        <v>0.4004413187503815</v>
       </c>
       <c r="W65" t="n">
-        <v>0.01373809389770031</v>
+        <v>0.2093342393636703</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8853330612182617</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5251383781433105</v>
       </c>
       <c r="W66" t="n">
-        <v>0.256708025932312</v>
+        <v>0.1297402083873749</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8596880435943604</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8671190738677979</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1524841636419296</v>
+        <v>5.522021092474461e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9237408638000488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8876311779022217</v>
       </c>
       <c r="W68" t="n">
-        <v>0.00805823877453804</v>
+        <v>0.001303909462876618</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8601500988006592</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.4022215008735657</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0009283563704229891</v>
+        <v>0.2096986025571823</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8598289489746094</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5188332200050354</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2322842925786972</v>
+        <v>0.1162780895829201</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8605759143829346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8803503513336182</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04313682019710541</v>
+        <v>0.000391028355807066</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9218680858612061</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8889811635017395</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1151017844676971</v>
+        <v>0.00108154967892915</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8634340763092041</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5156175494194031</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2618907392024994</v>
+        <v>0.1209763363003731</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8674938678741455</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.526452898979187</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1648163348436356</v>
+        <v>0.1163089424371719</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8587491512298584</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5268343687057495</v>
       </c>
       <c r="W75" t="n">
-        <v>0.07637184113264084</v>
+        <v>0.110167421400547</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9295041561126709</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8670416474342346</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1247598528862</v>
+        <v>0.003901564981788397</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8605320453643799</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4004342257976532</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2598465383052826</v>
+        <v>0.2116900086402893</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8665120601654053</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5161651968955994</v>
       </c>
       <c r="W78" t="n">
-        <v>0.0747959092259407</v>
+        <v>0.1227429211139679</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8927500247955322</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4021175503730774</v>
       </c>
       <c r="W79" t="n">
-        <v>0.002927723340690136</v>
+        <v>0.2407202273607254</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9193720817565918</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.402186244726181</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1845126301050186</v>
+        <v>0.2674811482429504</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8628511428833008</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.4001626968383789</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04380421340465546</v>
+        <v>0.2140806019306183</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5392858982086182</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8874654769897461</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01304733008146286</v>
+        <v>0.1212290227413177</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5357880592346191</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8625998497009277</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01396191492676735</v>
+        <v>0.1068059429526329</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5199570655822754</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8704881072044373</v>
       </c>
       <c r="W84" t="n">
-        <v>0.004507129080593586</v>
+        <v>0.1228720098733902</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5179939270019531</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5163477659225464</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0007361537427641451</v>
+        <v>2.709846285142703e-06</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5204510688781738</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.527601420879364</v>
       </c>
       <c r="W86" t="n">
-        <v>0.2071550190448761</v>
+        <v>5.112753206049092e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.515531063079834</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8654971122741699</v>
       </c>
       <c r="W87" t="n">
-        <v>0.03374304994940758</v>
+        <v>0.1224762350320816</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5176911354064941</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.87530916929245</v>
       </c>
       <c r="W88" t="n">
-        <v>0.004815352614969015</v>
+        <v>0.1278906613588333</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5157589912414551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.508813738822937</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0001223921572091058</v>
+        <v>4.823653216590174e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5638771057128906</v>
       </c>
       <c r="V90" t="n">
-        <v>0.802345335483551</v>
+        <v>0.881010890007019</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0568670965731144</v>
+        <v>0.1005738377571106</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5216150283813477</v>
       </c>
       <c r="V91" t="n">
-        <v>0.490907609462738</v>
+        <v>0.3990164995193481</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0009429455967620015</v>
+        <v>0.0150303989648819</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190351009368896</v>
       </c>
       <c r="V92" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8667265772819519</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0002329470735276118</v>
+        <v>0.1208893656730652</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5160300731658936</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5158445835113525</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003621504176408052</v>
+        <v>3.440641194174532e-08</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5161871910095215</v>
       </c>
       <c r="V94" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.567876398563385</v>
       </c>
       <c r="W94" t="n">
-        <v>0.1030122116208076</v>
+        <v>0.002671774243935943</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5659351348876953</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.886148989200592</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01049596257507801</v>
+        <v>0.1025369092822075</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5180850028991699</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.3998481929302216</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0001738825958454981</v>
+        <v>0.01397994346916676</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5193839073181152</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5232217311859131</v>
       </c>
       <c r="W97" t="n">
-        <v>0.003354920772835612</v>
+        <v>1.472889198339544e-05</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.516585111618042</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4004715383052826</v>
       </c>
       <c r="W98" t="n">
-        <v>7.031726272543892e-05</v>
+        <v>0.01348236203193665</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5163099765777588</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8759083151817322</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0001578227384015918</v>
+        <v>0.1293109655380249</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5164961814880371</v>
       </c>
       <c r="V100" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4004230797290802</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0006846809992566705</v>
+        <v>0.01347296498715878</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5191071033477783</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5454635620117188</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08066303282976151</v>
+        <v>0.0006946629146113992</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3992648124694824</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8671453595161438</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1616008877754211</v>
+        <v>0.218912199139595</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4483058452606201</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5234807133674622</v>
       </c>
       <c r="W103" t="n">
-        <v>0.005830447189509869</v>
+        <v>0.005651260726153851</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4074180126190186</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8784862160682678</v>
       </c>
       <c r="W104" t="n">
-        <v>0.003211287315934896</v>
+        <v>0.2219052463769913</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3957810401916504</v>
       </c>
       <c r="V105" t="n">
-        <v>0.699232816696167</v>
+        <v>0.4000473320484161</v>
       </c>
       <c r="W105" t="n">
-        <v>0.09208297729492188</v>
+        <v>1.820124634832609e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3837540149688721</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.400383323431015</v>
       </c>
       <c r="W106" t="n">
-        <v>0.07204052060842514</v>
+        <v>0.0002765338867902756</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3882570266723633</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.4000334739685059</v>
       </c>
       <c r="W107" t="n">
-        <v>0.03773706406354904</v>
+        <v>0.000138684714329429</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3870830535888672</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5159133672714233</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0002235401479993016</v>
+        <v>0.01659725047647953</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4050898551940918</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5205156207084656</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1875733286142349</v>
+        <v>0.01332310773432255</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3943400382995605</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8672009110450745</v>
       </c>
       <c r="W110" t="n">
-        <v>0.009230943396687508</v>
+        <v>0.2235974073410034</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.397191047668457</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5264019370079041</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1660116761922836</v>
+        <v>0.01669545471668243</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4008119106292725</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8673733472824097</v>
       </c>
       <c r="W112" t="n">
-        <v>0.09441184252500534</v>
+        <v>0.21767957508564</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4394669532775879</v>
       </c>
       <c r="V113" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5310924649238586</v>
       </c>
       <c r="W113" t="n">
-        <v>0.07215110957622528</v>
+        <v>0.008395234122872353</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909599781036377</v>
       </c>
       <c r="V114" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8789129853248596</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3418357372283936</v>
+        <v>0.23809814453125</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3923289775848389</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.895041286945343</v>
       </c>
       <c r="W115" t="n">
-        <v>0.004779377486556768</v>
+        <v>0.2527196705341339</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3862950801849365</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.3990497291088104</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0938790962100029</v>
+        <v>0.0001626810699235648</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3853738307952881</v>
       </c>
       <c r="V117" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8711701035499573</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001040469272993505</v>
+        <v>0.2359980195760727</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4007699489593506</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5204565525054932</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0640580877661705</v>
+        <v>0.01432488299906254</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4487299919128418</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.889954686164856</v>
       </c>
       <c r="W119" t="n">
-        <v>0.003178627463057637</v>
+        <v>0.1946792304515839</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4030859470367432</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.887063205242157</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0626467764377594</v>
+        <v>0.2342339903116226</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3998720645904541</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.4000446200370789</v>
       </c>
       <c r="W121" t="n">
-        <v>0.002782649593427777</v>
+        <v>2.977538215986897e-08</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8734807968139648</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5212754011154175</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1357042342424393</v>
+        <v>0.1240486428141594</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9794950485229492</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4004911482334137</v>
       </c>
       <c r="W123" t="n">
-        <v>0.4000037610530853</v>
+        <v>0.3352455496788025</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9272291660308838</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8671498894691467</v>
       </c>
       <c r="W124" t="n">
-        <v>0.008743011392652988</v>
+        <v>0.003609519451856613</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8761489391326904</v>
       </c>
       <c r="V125" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5161942839622498</v>
       </c>
       <c r="W125" t="n">
-        <v>0.001769486349076033</v>
+        <v>0.1295673549175262</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8977329730987549</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8564228415489197</v>
       </c>
       <c r="W126" t="n">
-        <v>0.139369010925293</v>
+        <v>0.001706526963971555</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8631350994110107</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8735594153404236</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2614086270332336</v>
+        <v>0.0001086663614842109</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8644227981567383</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4025778472423553</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1146622598171234</v>
+        <v>0.2133007645606995</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8633098602294922</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5163698792457581</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1987348794937134</v>
+        <v>0.1203673481941223</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8597359657287598</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4020715355873108</v>
       </c>
       <c r="W130" t="n">
-        <v>0.04252335801720619</v>
+        <v>0.2094567269086838</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877918004989624</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5238823890686035</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1714949458837509</v>
+        <v>0.1253412216901779</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8692779541015625</v>
       </c>
       <c r="V132" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8775805830955505</v>
       </c>
       <c r="W132" t="n">
-        <v>0.0113353505730629</v>
+        <v>6.893364479765296e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.877385675907135</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2113287895917892</v>
+        <v>1.294708695809277e-08</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8604459762573242</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4000311493873596</v>
       </c>
       <c r="W134" t="n">
-        <v>0.0132439136505127</v>
+        <v>0.2119818180799484</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8821020126342773</v>
       </c>
       <c r="V135" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4010181427001953</v>
       </c>
       <c r="W135" t="n">
-        <v>0.05226192250847816</v>
+        <v>0.2314416915178299</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710248470306396</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8705452084541321</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2706756591796875</v>
+        <v>2.300531605214928e-07</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.992156982421875</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4010012447834015</v>
       </c>
       <c r="W137" t="n">
-        <v>0.3844715654850006</v>
+        <v>0.3494651317596436</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8618462085723877</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5320085287094116</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1377868056297302</v>
+        <v>0.1087928935885429</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9156229496002197</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5178853869438171</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04495874047279358</v>
+        <v>0.1581951677799225</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8706269264221191</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4022208452224731</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08702613413333893</v>
+        <v>0.2194042503833771</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.87027907371521</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3990623950958252</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2048524469137192</v>
+        <v>0.2220451533794403</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5346388816833496</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8643121719360352</v>
       </c>
       <c r="W142" t="n">
-        <v>9.703473915578797e-05</v>
+        <v>0.1086844801902771</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5207669734954834</v>
       </c>
       <c r="V143" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5180708169937134</v>
       </c>
       <c r="W143" t="n">
-        <v>0.2068518847227097</v>
+        <v>7.26926009519957e-06</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5735490322113037</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.4004537165164948</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02433722466230392</v>
+        <v>0.02996198832988739</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5191099643707275</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5160053372383118</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002490485552698374</v>
+        <v>9.638709343562368e-06</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5204861164093018</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8875454664230347</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0002331618161406368</v>
+        <v>0.1347325593233109</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5392839908599854</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3999441564083099</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0255870409309864</v>
+        <v>0.0194155890494585</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5188689231872559</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5241552591323853</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01834373362362385</v>
+        <v>2.794534702843521e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5620100498199463</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8626602292060852</v>
       </c>
       <c r="W149" t="n">
-        <v>0.05772561579942703</v>
+        <v>0.09039053320884705</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5212180614471436</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4021430313587189</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01758301630616188</v>
+        <v>0.01417886279523373</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.514441967010498</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8752123713493347</v>
       </c>
       <c r="W151" t="n">
-        <v>0.026783412322402</v>
+        <v>0.1301552802324295</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5230338573455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3992174565792084</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02289046719670296</v>
+        <v>0.01533050090074539</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164499282836914</v>
       </c>
       <c r="V153" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5276839733123779</v>
       </c>
       <c r="W153" t="n">
-        <v>0.210464209318161</v>
+        <v>0.0001262037694687024</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157740116119385</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8735994696617126</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02066775038838387</v>
+        <v>0.1280390620231628</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5200760364532471</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8740736246109009</v>
       </c>
       <c r="W155" t="n">
-        <v>0.07861936837434769</v>
+        <v>0.1253142952919006</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5208590030670166</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5281313061714172</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01065210159868002</v>
+        <v>5.288639295031317e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520766019821167</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5156618356704712</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0003935169079340994</v>
+        <v>2.605269583000336e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5157461166381836</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.3990331590175629</v>
       </c>
       <c r="W158" t="n">
-        <v>0.003668623976409435</v>
+        <v>0.01362191420048475</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5134131908416748</v>
       </c>
       <c r="V159" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5186238288879395</v>
       </c>
       <c r="W159" t="n">
-        <v>0.08443103730678558</v>
+        <v>2.715074879233725e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5713281631469727</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.866793692111969</v>
       </c>
       <c r="W160" t="n">
-        <v>0.04817083105444908</v>
+        <v>0.08729987591505051</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.522662878036499</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5101183652877808</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001027346705086529</v>
+        <v>0.0001573648041812703</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3940610885620117</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5110742449760437</v>
       </c>
       <c r="W162" t="n">
-        <v>0.009284990839660168</v>
+        <v>0.01369207911193371</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3914721012115479</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5284585952758789</v>
       </c>
       <c r="W163" t="n">
-        <v>0.09471746534109116</v>
+        <v>0.01876529864966869</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3906350135803223</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5171476006507874</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0681430771946907</v>
+        <v>0.01600543409585953</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3924970626831055</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8836314678192139</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1678703278303146</v>
+        <v>0.2412130087614059</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.450124979019165</v>
       </c>
       <c r="V166" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5288398265838623</v>
       </c>
       <c r="W166" t="n">
-        <v>0.2766279280185699</v>
+        <v>0.006196027155965567</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3920059204101562</v>
       </c>
       <c r="V167" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8774799704551697</v>
       </c>
       <c r="W167" t="n">
-        <v>0.3407386839389801</v>
+        <v>0.2356850504875183</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3911018371582031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5210354924201965</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0007049244013614953</v>
+        <v>0.0168827548623085</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.39444899559021</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8874902129173279</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001843154430389404</v>
+        <v>0.2430896461009979</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3998000621795654</v>
       </c>
       <c r="V170" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3998268246650696</v>
       </c>
       <c r="W170" t="n">
-        <v>0.161472350358963</v>
+        <v>7.162306303598598e-10</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923919200897217</v>
       </c>
       <c r="V171" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4010004103183746</v>
       </c>
       <c r="W171" t="n">
-        <v>0.09684033691883087</v>
+        <v>7.410610123770311e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3932938575744629</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4022109508514404</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01248264312744141</v>
+        <v>7.951455336296931e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3941750526428223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.3990426659584045</v>
       </c>
       <c r="W173" t="n">
-        <v>0.06698732823133469</v>
+        <v>2.369365938648116e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4129297733306885</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8699624538421631</v>
       </c>
       <c r="W174" t="n">
-        <v>0.008377636782824993</v>
+        <v>0.2088788747787476</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3934879302978516</v>
       </c>
       <c r="V175" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8747091889381409</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0005829612491652369</v>
+        <v>0.2315738946199417</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5241073369979858</v>
       </c>
       <c r="W176" t="n">
-        <v>0.162249967455864</v>
+        <v>0.0157056599855423</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4127500057220459</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5657289624214172</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002612061332911253</v>
+        <v>0.02340256050229073</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3900389671325684</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5026366114616394</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01818552613258362</v>
+        <v>0.01267822925001383</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3949189186096191</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8837655782699585</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03839297965168953</v>
+        <v>0.2389710545539856</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3938121795654297</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5181193947792053</v>
       </c>
       <c r="W180" t="n">
-        <v>0.004901542793959379</v>
+        <v>0.01545228343456984</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.403033971786499</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5161083936691284</v>
       </c>
       <c r="W181" t="n">
-        <v>0.03673384711146355</v>
+        <v>0.01278582494705915</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8819780349731445</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4000382125377655</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2156225740909576</v>
+        <v>0.2322659939527512</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.907789945602417</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3990291655063629</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1099244952201843</v>
+        <v>0.2588375508785248</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8771862983703613</v>
       </c>
       <c r="W184" t="n">
-        <v>0.004362152889370918</v>
+        <v>8.305245137307793e-05</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8783891201019287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5258384943008423</v>
       </c>
       <c r="W185" t="n">
-        <v>0.27840256690979</v>
+        <v>0.1242919415235519</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8684408664703369</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8750945925712585</v>
       </c>
       <c r="W186" t="n">
-        <v>0.004367453046143055</v>
+        <v>4.427207022672519e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8954370021820068</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.4010108709335327</v>
       </c>
       <c r="W187" t="n">
-        <v>0.296684741973877</v>
+        <v>0.2444572001695633</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8704550266265869</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5221402645111084</v>
       </c>
       <c r="W188" t="n">
-        <v>0.08669152855873108</v>
+        <v>0.1213231757283211</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8688759803771973</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.3990536630153656</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2403905838727951</v>
+        <v>0.2207330167293549</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8591442108154297</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.4004002511501312</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2300847321748734</v>
+        <v>0.2104460150003433</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9573700428009033</v>
       </c>
       <c r="V191" t="n">
-        <v>0.405481219291687</v>
+        <v>0.3990359902381897</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3045812845230103</v>
+        <v>0.3117369115352631</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8688590526580811</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8823712468147278</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1431619077920914</v>
+        <v>0.0001825793879106641</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8743350505828857</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2048426866531372</v>
+        <v>1.659826375544071e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8677430152893066</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5216885209083557</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1178966239094734</v>
+        <v>0.1197537109255791</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9192900657653809</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.5159640908241272</v>
       </c>
       <c r="W195" t="n">
-        <v>0.003170352661982179</v>
+        <v>0.1626718491315842</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.86232590675354</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5231542587280273</v>
       </c>
       <c r="W196" t="n">
-        <v>0.04347233474254608</v>
+        <v>0.1150374040007591</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8719251155853271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4024383425712585</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1452309340238571</v>
+        <v>0.2204178273677826</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.869563102722168</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.5259974002838135</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1188516095280647</v>
+        <v>0.1180373951792717</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9221830368041992</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.3992283642292023</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1752043664455414</v>
+        <v>0.2734816074371338</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8622620105743408</v>
       </c>
       <c r="V200" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5229085683822632</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1976773291826248</v>
+        <v>0.1151607558131218</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8710739612579346</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8681322932243347</v>
       </c>
       <c r="W201" t="n">
-        <v>0.001366738229990005</v>
+        <v>8.653410986880772e-06</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5169930458068848</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5234673619270325</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0006818873807787895</v>
+        <v>4.191676998743787e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514185905456543</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5238714814186096</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01930016092956066</v>
+        <v>9.381038398714736e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5703630447387695</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.4004201591014862</v>
       </c>
       <c r="W204" t="n">
-        <v>0.00634236354380846</v>
+        <v>0.02888058498501778</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5174400806427002</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5221734642982483</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01937594451010227</v>
+        <v>2.240491994598415e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5218470096588135</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8751229643821716</v>
       </c>
       <c r="W206" t="n">
-        <v>0.1021478846669197</v>
+        <v>0.124803900718689</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5113370418548584</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3992222547531128</v>
       </c>
       <c r="W207" t="n">
-        <v>6.83992329868488e-05</v>
+        <v>0.01256972551345825</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5158228874206543</v>
       </c>
       <c r="V208" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3990467488765717</v>
       </c>
       <c r="W208" t="n">
-        <v>0.009637258015573025</v>
+        <v>0.01363666635006666</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5713140964508057</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8664140701293945</v>
       </c>
       <c r="W209" t="n">
-        <v>0.04863706976175308</v>
+        <v>0.08708399534225464</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5053648352622986</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02991142310202122</v>
+        <v>0.0002109824417857453</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5200309753417969</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4003903269767761</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0219123549759388</v>
+        <v>0.0143138850107789</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5163159966468811</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01758135482668877</v>
+        <v>3.422753707127413e-06</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5195357799530029</v>
       </c>
       <c r="V213" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.52256840467453</v>
       </c>
       <c r="W213" t="n">
-        <v>0.2079758197069168</v>
+        <v>9.196813152811956e-06</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5233030319213867</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5265809893608093</v>
       </c>
       <c r="W214" t="n">
-        <v>3.238071485611727e-06</v>
+        <v>1.074500505637843e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5211880207061768</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8750313520431519</v>
       </c>
       <c r="W215" t="n">
-        <v>0.003026397433131933</v>
+        <v>0.1252050995826721</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5218300819396973</v>
       </c>
       <c r="V216" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8880894184112549</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0009897045092657208</v>
+        <v>0.1341459006071091</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5191562175750732</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5157080888748169</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0324241891503334</v>
+        <v>1.188959140563384e-05</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5160369873046875</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.5166805386543274</v>
       </c>
       <c r="W218" t="n">
-        <v>7.266366446856409e-05</v>
+        <v>4.141583360706136e-07</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.519726037979126</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5166051983833313</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01785259135067463</v>
+        <v>9.739639608596917e-06</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5710220336914062</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5216353535652161</v>
       </c>
       <c r="W220" t="n">
-        <v>0.05454318597912788</v>
+        <v>0.002439044183120131</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5185480117797852</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8680900931358337</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002994224429130554</v>
+        <v>0.1221796646714211</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3894450664520264</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.516277015209198</v>
       </c>
       <c r="W222" t="n">
-        <v>0.001496754703111947</v>
+        <v>0.01608634367585182</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8754677176475525</v>
       </c>
       <c r="W223" t="n">
-        <v>0.07015200704336166</v>
+        <v>0.2367121428251266</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3900578022003174</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8685606122016907</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01304188370704651</v>
+        <v>0.2289649397134781</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3894548416137695</v>
       </c>
       <c r="V225" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5326151847839355</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1705381721258163</v>
+        <v>0.02049488388001919</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4534618854522705</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5082093477249146</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01658120565116405</v>
+        <v>0.002997284522280097</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8723689913749695</v>
       </c>
       <c r="W227" t="n">
-        <v>0.004194934386759996</v>
+        <v>0.2265882641077042</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3967189788818359</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8745817542076111</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0004385262727737427</v>
+        <v>0.2283528298139572</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3932778835296631</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8792043328285217</v>
       </c>
       <c r="W229" t="n">
-        <v>0.004655743949115276</v>
+        <v>0.2361245155334473</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3935949802398682</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.3999270498752594</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03573235869407654</v>
+        <v>4.009510666946881e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3923270702362061</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8663769364356995</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0179278664290905</v>
+        <v>0.2247232794761658</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4489080905914307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4010161459445953</v>
       </c>
       <c r="W232" t="n">
-        <v>0.005948722828179598</v>
+        <v>0.002293638419359922</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4101758003234863</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5321584343910217</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01313757337629795</v>
+        <v>0.01487976312637329</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3969268798828125</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.516017735004425</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0004285273316781968</v>
+        <v>0.0141826318576932</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3950700759887695</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.4010137617588043</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01705557480454445</v>
+        <v>3.532740083755925e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972718715667725</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5216128826141357</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0320158526301384</v>
+        <v>0.01546068675816059</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3937051296234131</v>
       </c>
       <c r="V237" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8867620229721069</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1654472798109055</v>
+        <v>0.2431050986051559</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3919439315795898</v>
       </c>
       <c r="V238" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8733680248260498</v>
       </c>
       <c r="W238" t="n">
-        <v>0.06884967535734177</v>
+        <v>0.2317691594362259</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043810367584229</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.399845689535141</v>
       </c>
       <c r="W239" t="n">
-        <v>0.007493909914046526</v>
+        <v>2.056937410088722e-05</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V240" t="n">
-        <v>0.505433976650238</v>
+        <v>0.8687241673469543</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01334116607904434</v>
+        <v>0.2292438447475433</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3937091827392578</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5214174389839172</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06745158135890961</v>
+        <v>0.01630939915776253</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8741559982299805</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5113891363143921</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1473349779844284</v>
+        <v>0.1315997987985611</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8969101905822754</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5160884261131287</v>
       </c>
       <c r="W243" t="n">
-        <v>0.004523895215243101</v>
+        <v>0.145025223493576</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8844399452209473</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4004059731960297</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1553040146827698</v>
+        <v>0.2342888861894608</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.884005069732666</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5195614695549011</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1283342838287354</v>
+        <v>0.1328191310167313</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632850646972656</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8677927255630493</v>
       </c>
       <c r="W246" t="n">
-        <v>0.07212568819522858</v>
+        <v>2.031900658039376e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8671733140945435</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2225442230701447</v>
+        <v>0.0004894578596577048</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8745551109313965</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5196289420127869</v>
       </c>
       <c r="W248" t="n">
-        <v>0.02772617153823376</v>
+        <v>0.1259725838899612</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8725440502166748</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.3992043137550354</v>
       </c>
       <c r="W249" t="n">
-        <v>0.03234140574932098</v>
+        <v>0.2240505069494247</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8593778610229492</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4020498096942902</v>
       </c>
       <c r="W250" t="n">
-        <v>0.02570490539073944</v>
+        <v>0.2091489434242249</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9177348613739014</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3993755280971527</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2501043677330017</v>
+        <v>0.2686963677406311</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8791618347167969</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.86507648229599</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2831626534461975</v>
+        <v>0.0001983971596928313</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753988742828369</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4010336101055145</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1375145763158798</v>
+        <v>0.2250224053859711</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8689060211181641</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.3999249339103699</v>
       </c>
       <c r="W254" t="n">
-        <v>0.04645057767629623</v>
+        <v>0.2199432551860809</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9299039840698242</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3990403115749359</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2172303050756454</v>
+        <v>0.2818162143230438</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8701260089874268</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5208919048309326</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1329904943704605</v>
+        <v>0.1219644621014595</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.874377965927124</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4006637334823608</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2454930543899536</v>
+        <v>0.2244051694869995</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8652691841125488</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8708664774894714</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2647339999675751</v>
+        <v>3.13296914100647e-05</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9306130409240723</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8732872009277344</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2632416784763336</v>
+        <v>0.003286252031102777</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8682229518890381</v>
       </c>
       <c r="V260" t="n">
-        <v>0.652911365032196</v>
+        <v>0.3990610539913177</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04635908082127571</v>
+        <v>0.2201128900051117</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8705630302429199</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8732808232307434</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1657146811485291</v>
+        <v>7.386398920061765e-06</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5221869945526123</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8777459859848022</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0002979986602440476</v>
+        <v>0.1264221966266632</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5225579738616943</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4020923376083374</v>
       </c>
       <c r="W263" t="n">
-        <v>0.001009171362966299</v>
+        <v>0.01451196987181902</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5496118068695068</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8660279512405396</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02238302305340767</v>
+        <v>0.1001191735267639</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V265" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3992156684398651</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01691943779587746</v>
+        <v>0.01544581633061171</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.52093505859375</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8783836960792542</v>
       </c>
       <c r="W266" t="n">
-        <v>0.003255939111113548</v>
+        <v>0.1277695298194885</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5218210220336914</v>
       </c>
       <c r="V267" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8741881251335144</v>
       </c>
       <c r="W267" t="n">
-        <v>0.2055456340312958</v>
+        <v>0.1241625770926476</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5265488624572754</v>
       </c>
       <c r="V268" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5224109292030334</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01661944948136806</v>
+        <v>1.712249104457442e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5814778804779053</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.522022545337677</v>
       </c>
       <c r="W269" t="n">
-        <v>0.04384012147784233</v>
+        <v>0.003534936811774969</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5208179950714111</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5180672407150269</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0002892317424993962</v>
+        <v>7.566649401269387e-06</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5226747989654541</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.4010156095027924</v>
       </c>
       <c r="W271" t="n">
-        <v>3.659383310150588e-06</v>
+        <v>0.01480095833539963</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5375781059265137</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5212312936782837</v>
       </c>
       <c r="W272" t="n">
-        <v>0.07038167119026184</v>
+        <v>0.0002672182745300233</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8748709559440613</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0223704855889082</v>
+        <v>0.1249014511704445</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5415711402893066</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.866875946521759</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02664027735590935</v>
+        <v>0.1058232188224792</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.514908492565155</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01164331566542387</v>
+        <v>0.0001109975637518801</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5217421054840088</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8756649494171143</v>
       </c>
       <c r="W276" t="n">
-        <v>1.175514989881776e-05</v>
+        <v>0.1252613812685013</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5241010189056396</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.400407612323761</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01694033108651638</v>
+        <v>0.01530005875974894</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5220959186553955</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.4010261297225952</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02282559312880039</v>
+        <v>0.01465789414942265</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5272500514984131</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8743215799331665</v>
       </c>
       <c r="W279" t="n">
-        <v>0.003016168950125575</v>
+        <v>0.120458647608757</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5760009288787842</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5157768130302429</v>
       </c>
       <c r="W280" t="n">
-        <v>0.03906667232513428</v>
+        <v>0.003626944031566381</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5176501274108887</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3999144732952118</v>
       </c>
       <c r="W281" t="n">
-        <v>0.00485652033239603</v>
+        <v>0.01386168412864208</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4199678897857666</v>
       </c>
       <c r="V282" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4004012644290924</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1444728970527649</v>
+        <v>0.0003828528278972954</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4006869792938232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4000447690486908</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0643293485045433</v>
+        <v>4.12433990959471e-07</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3958210945129395</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8663732409477234</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1672045886516571</v>
+        <v>0.2214193195104599</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.400108814239502</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5249015092849731</v>
       </c>
       <c r="W285" t="n">
-        <v>0.003721075132489204</v>
+        <v>0.01557321660220623</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4396119117736816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5155813097953796</v>
       </c>
       <c r="W286" t="n">
-        <v>0.007897875271737576</v>
+        <v>0.005771349649876356</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4000639915466309</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4010502099990845</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1636863797903061</v>
+        <v>9.726268217491452e-07</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3995819091796875</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.4010288715362549</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01606546901166439</v>
+        <v>2.093700004479615e-06</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052491188049316</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8766701221466064</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0001540343655506149</v>
+        <v>0.222237765789032</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3960039615631104</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4004370868206024</v>
       </c>
       <c r="W290" t="n">
-        <v>0.03248077630996704</v>
+        <v>1.96525998035213e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3953230381011963</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.3990536034107208</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01192591618746519</v>
+        <v>1.391711793985451e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4610579013824463</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8639428019523621</v>
       </c>
       <c r="W292" t="n">
-        <v>0.004059857223182917</v>
+        <v>0.1623162478208542</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3997929096221924</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.3998262286186218</v>
       </c>
       <c r="W293" t="n">
-        <v>0.03651224076747894</v>
+        <v>1.110155523065259e-09</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4024639129638672</v>
       </c>
       <c r="V294" t="n">
-        <v>0.490833193063736</v>
+        <v>0.859033465385437</v>
       </c>
       <c r="W294" t="n">
-        <v>0.007809129543602467</v>
+        <v>0.2084557563066483</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3928940296173096</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.400472491979599</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06858415156602859</v>
+        <v>5.74330915696919e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3961861133575439</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.872980535030365</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0004598985251504928</v>
+        <v>0.2273329198360443</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4044020175933838</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8613695502281189</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01449746917933226</v>
+        <v>0.2088193297386169</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4242048263549805</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.4024754762649536</v>
       </c>
       <c r="W298" t="n">
-        <v>0.05213873460888863</v>
+        <v>0.0004721646546386182</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963778018951416</v>
       </c>
       <c r="V299" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.3999530375003815</v>
       </c>
       <c r="W299" t="n">
-        <v>0.3354634344577789</v>
+        <v>1.278230956813786e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4069781303405762</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.400491863489151</v>
       </c>
       <c r="W300" t="n">
-        <v>0.003078444162383676</v>
+        <v>4.20716569351498e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3979349136352539</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8867735266685486</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01131302397698164</v>
+        <v>0.2389631867408752</v>
       </c>
     </row>
     <row r="302" spans="1:23">
